--- a/biology/Zoologie/Crénilabre_mélops/Crénilabre_mélops.xlsx
+++ b/biology/Zoologie/Crénilabre_mélops/Crénilabre_mélops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symphodus melops
-Le crénilabre mélops (Symphodus melops) est une espèce de poissons marins appartenant à la famille des Labridae. Il est parfois appelé petite vieille[1] ou vracton croissant noir[2].
+Le crénilabre mélops (Symphodus melops) est une espèce de poissons marins appartenant à la famille des Labridae. Il est parfois appelé petite vieille ou vracton croissant noir.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crénilabre mélops est présent dans l'Atlantique Est, de la Norvège au Maroc. On peut aussi le trouver en Méditerranée. Il vit exclusivement dans les secteurs rocheux, ou les herbiers, dans la zone côtière entre un et 30 m de profondeur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crénilabre mélops est présent dans l'Atlantique Est, de la Norvège au Maroc. On peut aussi le trouver en Méditerranée. Il vit exclusivement dans les secteurs rocheux, ou les herbiers, dans la zone côtière entre un et 30 m de profondeur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crénilabre mélops présente de très nombreuses similitudes avec les autres labridés. Cependant, il est aisément reconnaissable grâce à la présence d'un ocelle noir de part et d'autre du pédoncule caudal au-dessous de la ligne latérale. Il dépasse rarement une vingtaine de centimètres[3] mais certains auteurs indiquent que les plus grands individus atteignent 28 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crénilabre mélops présente de très nombreuses similitudes avec les autres labridés. Cependant, il est aisément reconnaissable grâce à la présence d'un ocelle noir de part et d'autre du pédoncule caudal au-dessous de la ligne latérale. Il dépasse rarement une vingtaine de centimètres mais certains auteurs indiquent que les plus grands individus atteignent 28 cm.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de bryozoaires, de crustacés, de vers et de petits mollusques.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction a lieu en été. Pour la ponte, le mâle construit et défend un nid constitué d'algues au milieu des rochers ou dans les crevasses.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nilabre_m%C3%A9lops</t>
+          <t>Crénilabre_mélops</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ce taxon admet plusieurs synonymes :
 Labrus melops (Linnaeus, 1758)
